--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05745933333333333</v>
+        <v>0.1127976666666667</v>
       </c>
       <c r="H2">
-        <v>0.172378</v>
+        <v>0.338393</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.451301666666667</v>
+        <v>1.952294</v>
       </c>
       <c r="N2">
-        <v>7.353905</v>
+        <v>5.856882</v>
       </c>
       <c r="O2">
-        <v>0.1099648918267336</v>
+        <v>0.07575070565202183</v>
       </c>
       <c r="P2">
-        <v>0.1099648918267337</v>
+        <v>0.07575070565202184</v>
       </c>
       <c r="Q2">
-        <v>0.1408501595655555</v>
+        <v>0.2202142078473333</v>
       </c>
       <c r="R2">
-        <v>1.26765143609</v>
+        <v>1.981927870626</v>
       </c>
       <c r="S2">
-        <v>0.1099648918267336</v>
+        <v>0.07575070565202183</v>
       </c>
       <c r="T2">
-        <v>0.1099648918267337</v>
+        <v>0.07575070565202184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05745933333333333</v>
+        <v>0.1127976666666667</v>
       </c>
       <c r="H3">
-        <v>0.172378</v>
+        <v>0.338393</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>43.911918</v>
       </c>
       <c r="O3">
-        <v>0.6566265559283671</v>
+        <v>0.5679402069281436</v>
       </c>
       <c r="P3">
-        <v>0.6566265559283672</v>
+        <v>0.5679402069281437</v>
       </c>
       <c r="Q3">
-        <v>0.8410498445560001</v>
+        <v>1.651053963086</v>
       </c>
       <c r="R3">
-        <v>7.569448601004</v>
+        <v>14.859485667774</v>
       </c>
       <c r="S3">
-        <v>0.6566265559283671</v>
+        <v>0.5679402069281436</v>
       </c>
       <c r="T3">
-        <v>0.6566265559283672</v>
+        <v>0.5679402069281437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05745933333333333</v>
+        <v>0.1127976666666667</v>
       </c>
       <c r="H4">
-        <v>0.172378</v>
+        <v>0.338393</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.177582333333334</v>
+        <v>9.009963000000001</v>
       </c>
       <c r="N4">
-        <v>15.532747</v>
+        <v>27.029889</v>
       </c>
       <c r="O4">
-        <v>0.2322652853996647</v>
+        <v>0.3495944028658632</v>
       </c>
       <c r="P4">
-        <v>0.2322652853996648</v>
+        <v>0.3495944028658634</v>
       </c>
       <c r="Q4">
-        <v>0.2975004291517778</v>
+        <v>1.016302803153</v>
       </c>
       <c r="R4">
-        <v>2.677503862366</v>
+        <v>9.146725228377001</v>
       </c>
       <c r="S4">
-        <v>0.2322652853996647</v>
+        <v>0.3495944028658632</v>
       </c>
       <c r="T4">
-        <v>0.2322652853996648</v>
+        <v>0.3495944028658634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1127976666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.338393</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.05745933333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.172378</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.02548533333333333</v>
+        <v>0.173055</v>
       </c>
       <c r="N5">
-        <v>0.076456</v>
+        <v>0.519165</v>
       </c>
       <c r="O5">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971194</v>
       </c>
       <c r="P5">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971196</v>
       </c>
       <c r="Q5">
-        <v>0.001464370263111111</v>
+        <v>0.019520200205</v>
       </c>
       <c r="R5">
-        <v>0.013179332368</v>
+        <v>0.175681801845</v>
       </c>
       <c r="S5">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971194</v>
       </c>
       <c r="T5">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971196</v>
       </c>
     </row>
   </sheetData>
